--- a/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Acucar.xlsx
+++ b/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Acucar.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Açúcar Refinado União 1kg</t>
+          <t>Açúcar Mascavo União 400g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 4,89</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2bb6ba3-660a-4683-bae6-f18e0e3f5bd6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0da2f213-6861-45ad-b989-5be08fa51eee.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891910030330</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Açúcar Refinado Da Barra 1kg</t>
+          <t>Açúcar Light Magro 500g</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54fa8836-bae3-4720-b8bd-8767b1e1df06.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7909ad08-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896292001404</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Açúcar Refinado Alto Alegre 1kg</t>
+          <t>Açúcar Dememara Alto Alegre Pacote 1kg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 4,39</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c05efe55-b373-44b1-b02c-3602c1021886.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dec84b59-b1be-4061-b982-deb54a00f337.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896508200119</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AÇÚCAR DEMERARA ORGÂNICO NATIVE 1KG</t>
+          <t>Açúcar Mascavo Kodilar 1kg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 17,98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b12625df-737b-427f-90c8-e381ef1748ff.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffe34a28-6715-4abe-8ffa-d3ae2a32ae9c.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896256041507</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Açúcar Demerara Naturale União 1kg</t>
+          <t>Açúcar Mascavo Kodilar 500g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/be1e2223-be80-42d8-9ee6-2d2c99c7a352.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5f22ba7-a97e-4f4c-aa1f-faae6876b195.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896256041507</t>
         </is>
       </c>
     </row>
@@ -596,7 +626,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Açúcar Cristal Orgânico Native 1kg</t>
+          <t>Açúcar Mascavo Da Colônia 500g</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +636,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3781ac8-4972-4e62-bba7-d63d2bdd425f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d0b9b96-d2a1-4337-bdb2-551c23055842.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896181700234</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Açúcar Cristal União Cristalçúcar 1kg</t>
+          <t>Açúcar Cristal Orgânico Native 1kg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 5,29</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aac13541-c309-4a6c-8686-266a4e992c88.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3781ac8-4972-4e62-bba7-d63d2bdd425f.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891910020034</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Açúcar Dememara Alto Alegre Pacote 1kg</t>
+          <t>AÇÚCAR DEMERARA ORGÂNICO NATIVE 1KG</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dec84b59-b1be-4061-b982-deb54a00f337.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b12625df-737b-427f-90c8-e381ef1748ff.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7898206500027</t>
         </is>
       </c>
     </row>
@@ -690,6 +735,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9af5b8ac-e20b-4d26-9adf-d2688dad7cc8.jpg</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891910020096</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Açúcar Mascavo Da Colônia 500g</t>
+          <t>Açúcar Orgânico União Sachê 200g (40x5g)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d0b9b96-d2a1-4337-bdb2-551c23055842.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef4f24dc-3a9b-48db-9e83-f922aeb3fa16.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891910020041</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Açúcar Mascavo Orgânico Saúde Da Terra Pacote 400g</t>
+          <t>Açúcar Cristal Orgânico União 1kg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 9,49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/47169b82-2f4d-4ef4-b6f1-1b7edb653323.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eafc6186-db46-40c0-80f6-4459828ad5aa.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891910020034</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Açúcar Cristal Orgânico União 1kg</t>
+          <t>Açúcar Cristal União Cristalçúcar 1kg</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 9,49</t>
+          <t>R$ 5,29</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eafc6186-db46-40c0-80f6-4459828ad5aa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aac13541-c309-4a6c-8686-266a4e992c88.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891959014612</t>
         </is>
       </c>
     </row>
@@ -785,179 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Açúcar Refinado União Premium Sachê 200g (40x5g)</t>
+          <t>Açúcar Refinado Doçúcar União Pacote 1kg</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/72a7563b-4e1d-49d9-9ea5-4794bd005942.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Acucar</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Açúcar Mascavo Kodilar 1kg</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffe34a28-6715-4abe-8ffa-d3ae2a32ae9c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Acucar</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Açúcar Orgânico União Sachê 200g (40x5g)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef4f24dc-3a9b-48db-9e83-f922aeb3fa16.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Acucar</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Açúcar Mascavo Kodilar 500g</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5f22ba7-a97e-4f4c-aa1f-faae6876b195.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Acucar</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Açúcar Mascavo União 400g</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0da2f213-6861-45ad-b989-5be08fa51eee.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Acucar</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Açúcar Refinado Doçúcar União Pacote 1kg</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>R$ 9,49</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f66a6022-fb51-4f2a-a750-8a2f08162f86.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Acucar</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Açúcar Light Magro 500g</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7909ad08-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891910007004</t>
         </is>
       </c>
     </row>
